--- a/Dummy Data.xlsx
+++ b/Dummy Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sepehr\source\repos\Week 9 - Weblog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sepehr\source\repos\Weblog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11868763-7355-4F60-A01F-4172D08E5228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E65ADF-610F-4DEC-BDB8-498E65E5975C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="3" xr2:uid="{9D6BAE51-46C2-44D7-81E9-45867C934D73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="180">
   <si>
     <t>UserId</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>CommentId</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -622,9 +628,12 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -646,11 +655,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C5AA39C-5985-4784-A55E-EA20CAA39E8B}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0">
-  <autoFilter ref="A1:D40" xr:uid="{56EA5A43-7908-4426-9E81-F3E5CD2A185E}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C5AA39C-5985-4784-A55E-EA20CAA39E8B}" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+  <autoFilter ref="A1:E40" xr:uid="{56EA5A43-7908-4426-9E81-F3E5CD2A185E}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C02A9A8D-6EC8-49C4-A7BC-B89BA937E832}" name="UserId"/>
     <tableColumn id="2" xr3:uid="{282F29B3-0047-4F1D-A3F6-A43E8B607DE7}" name="EmailAddress"/>
+    <tableColumn id="6" xr3:uid="{DB14E91E-5ED4-4216-81FA-B800059B7714}" name="Password" dataDxfId="1" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{5E6C42D8-3734-4BEE-9C5C-7A3CE48A224A}" name="FirstName"/>
     <tableColumn id="4" xr3:uid="{541E2292-EBD1-48F7-8D57-20635FD403C8}" name="LastName"/>
   </tableColumns>
@@ -663,7 +673,7 @@
   <autoFilter ref="A1:D40" xr:uid="{9C0E7672-94A2-45B4-97F3-847D52BDE3E0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9A6095D0-7C34-4AD2-9CB0-792B205E8DF6}" name="BlogId"/>
-    <tableColumn id="2" xr3:uid="{5786255C-6F1E-4595-839D-0DAD1CA57291}" name="UserId" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{5786255C-6F1E-4595-839D-0DAD1CA57291}" name="UserId" dataDxfId="3">
       <calculatedColumnFormula>10+_xlfn.FLOOR.MATH(RAND()*25)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0AF7C448-3A8C-493E-BC57-2A2B51A90774}" name="Title"/>
@@ -692,11 +702,11 @@
   <autoFilter ref="A1:E40" xr:uid="{FFC03028-D10C-497E-9E4E-8D673B4610B2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{653F5F4B-858C-421C-9EB9-332B4B1D881C}" name="CommentId"/>
-    <tableColumn id="2" xr3:uid="{8735D6BD-5BA8-4DB3-872F-63B8EFC54634}" name="PostId" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{8735D6BD-5BA8-4DB3-872F-63B8EFC54634}" name="PostId" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.FLOOR.MATH(RAND()*40)+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8CDA002A-0C69-4AB5-82E2-8D2FF1C6EACA}" name="UserId" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.FLOOR.MATH(RAND()*25)+10</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.FLOOR.MATH(RAND()*25)+30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{FFAE9086-8640-435B-B743-BDA7DF08066B}" name="Body"/>
     <tableColumn id="5" xr3:uid="{035D87CE-E79E-4785-8BEF-C296C2B1453F}" name="TimeCreated"/>
@@ -1002,21 +1012,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7A8448-94EA-4877-8AF4-CB0C95C56342}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,335 +1035,425 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
         <v>80</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -1423,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBACDC67-C1C9-4184-B203-A25610D8649A}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1552,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -1459,8 +1560,8 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f t="shared" ref="B2:B40" ca="1" si="0">10+_xlfn.FLOOR.MATH(RAND()*25)</f>
-        <v>10</v>
+        <f ca="1">30+_xlfn.FLOOR.MATH(RAND()*25)</f>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
@@ -1471,8 +1572,8 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <f t="shared" ref="B4:B40" ca="1" si="0">30+_xlfn.FLOOR.MATH(RAND()*25)</f>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
@@ -1484,7 +1585,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>100</v>
@@ -1496,7 +1597,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
@@ -1505,7 +1606,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -1517,7 +1618,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -1529,7 +1630,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
@@ -1541,7 +1642,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -1553,7 +1654,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
@@ -1565,7 +1666,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>105</v>
@@ -1574,7 +1675,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>106</v>
@@ -1586,7 +1687,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>107</v>
@@ -1598,7 +1699,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>108</v>
@@ -1607,7 +1708,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>109</v>
@@ -1619,7 +1720,7 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>110</v>
@@ -1631,7 +1732,7 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>111</v>
@@ -1643,7 +1744,7 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -1655,7 +1756,7 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
@@ -1667,7 +1768,7 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>113</v>
@@ -1676,7 +1777,7 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
@@ -1688,7 +1789,7 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>115</v>
@@ -1700,7 +1801,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>116</v>
@@ -1709,7 +1810,7 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>117</v>
@@ -1721,7 +1822,7 @@
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
@@ -1733,7 +1834,7 @@
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>119</v>
@@ -1745,7 +1846,7 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>120</v>
@@ -1757,7 +1858,7 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>121</v>
@@ -1766,7 +1867,7 @@
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>122</v>
@@ -1778,7 +1879,7 @@
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>123</v>
@@ -1790,7 +1891,7 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>124</v>
@@ -1802,7 +1903,7 @@
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>125</v>
@@ -1814,7 +1915,7 @@
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>126</v>
@@ -1826,7 +1927,7 @@
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>127</v>
@@ -1838,7 +1939,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
         <v>128</v>
@@ -1850,7 +1951,7 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>129</v>
@@ -1859,7 +1960,7 @@
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>130</v>
@@ -1871,7 +1972,7 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>131</v>
@@ -1883,7 +1984,7 @@
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>132</v>
@@ -1905,7 +2006,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0210266-65D7-4502-8AFC-2823E2C1FE1C}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="A2:E40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2402,11 +2505,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <f t="shared" ref="B2:B40" ca="1" si="0">_xlfn.FLOOR.MATH(RAND()*40)+1</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C40" ca="1" si="1">_xlfn.FLOOR.MATH(RAND()*25)+10</f>
-        <v>11</v>
+        <f t="shared" ref="C2:C40" ca="1" si="1">_xlfn.FLOOR.MATH(RAND()*25)+30</f>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>176</v>
@@ -2415,11 +2518,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>176</v>
@@ -2428,11 +2531,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>176</v>
@@ -2441,11 +2544,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>176</v>
@@ -2454,11 +2557,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>176</v>
@@ -2467,11 +2570,11 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>176</v>
@@ -2480,11 +2583,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>176</v>
@@ -2493,11 +2596,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>176</v>
@@ -2506,11 +2609,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>176</v>
@@ -2519,11 +2622,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>176</v>
@@ -2532,11 +2635,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>176</v>
@@ -2545,11 +2648,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>176</v>
@@ -2558,11 +2661,11 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>176</v>
@@ -2571,11 +2674,11 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>176</v>
@@ -2584,11 +2687,11 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>176</v>
@@ -2597,11 +2700,11 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>176</v>
@@ -2610,11 +2713,11 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>176</v>
@@ -2623,11 +2726,11 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>176</v>
@@ -2636,11 +2739,11 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>176</v>
@@ -2649,11 +2752,11 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>176</v>
@@ -2662,11 +2765,11 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>176</v>
@@ -2675,11 +2778,11 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>176</v>
@@ -2688,11 +2791,11 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>176</v>
@@ -2701,11 +2804,11 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>176</v>
@@ -2714,11 +2817,11 @@
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>176</v>
@@ -2727,11 +2830,11 @@
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>176</v>
@@ -2740,11 +2843,11 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
         <v>176</v>
@@ -2753,11 +2856,11 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>176</v>
@@ -2766,11 +2869,11 @@
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>176</v>
@@ -2779,11 +2882,11 @@
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>176</v>
@@ -2792,11 +2895,11 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>176</v>
@@ -2805,11 +2908,11 @@
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>176</v>
@@ -2818,11 +2921,11 @@
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>176</v>
@@ -2831,11 +2934,11 @@
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>176</v>
@@ -2848,7 +2951,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
         <v>176</v>
@@ -2857,11 +2960,11 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>176</v>
@@ -2870,11 +2973,11 @@
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>176</v>
@@ -2883,11 +2986,11 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
         <v>176</v>
@@ -2900,7 +3003,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
         <v>176</v>
